--- a/Book2 (1).xlsx
+++ b/Book2 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E0297D-E7B0-412F-A341-40F8E641A0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF4A33-699E-4E5C-98D4-4BCC1C42B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
@@ -556,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1"/>

--- a/Book2 (1).xlsx
+++ b/Book2 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF4A33-699E-4E5C-98D4-4BCC1C42B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4DB59-612D-4699-A93D-80B5B54A3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
@@ -556,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1"/>
